--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F8" s="3">
         <v>15000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>39900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F9" s="3">
         <v>9400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>24800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,37 +901,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,57 +987,65 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F17" s="3">
         <v>13900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,28 +1072,30 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1036,57 +1103,69 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>700</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1094,57 +1173,69 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>700</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1243,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1278,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>500</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>500</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,28 +1488,34 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1384,37 +1523,49 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>500</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1593,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>500</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1702,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1733,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,20 +1768,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,20 +1803,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F44" s="3">
         <v>7700</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,20 +1838,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1873,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F46" s="3">
         <v>16400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1908,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,20 +1943,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1978,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2013,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,19 +2083,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2153,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F54" s="3">
         <v>18800</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2222,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,20 +2253,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,20 +2288,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2323,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2358,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2088,10 +2373,10 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2108,20 +2393,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2533,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F66" s="3">
         <v>15100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2723,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2863,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2933,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>500</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,16 +3027,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2649,11 +3046,11 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +3058,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3233,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3287,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2862,14 +3303,14 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3318,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3388,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,14 +3408,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3578,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3648,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,192 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F8" s="3">
         <v>13100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15000</v>
       </c>
-      <c r="G8" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8300</v>
-      </c>
       <c r="I8" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9400</v>
       </c>
-      <c r="G9" s="3">
-        <v>24800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5300</v>
-      </c>
       <c r="I9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3000</v>
-      </c>
       <c r="I10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +864,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +901,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,20 +942,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,17 +974,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,69 +1042,77 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F17" s="3">
         <v>12200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13900</v>
       </c>
-      <c r="G17" s="3">
-        <v>37000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7500</v>
-      </c>
       <c r="I17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>800</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1120,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,34 +1141,36 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1109,69 +1178,81 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>700</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1179,69 +1260,81 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>700</v>
-      </c>
       <c r="I23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1342,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>500</v>
-      </c>
       <c r="I26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>500</v>
-      </c>
       <c r="I27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,34 +1629,40 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1529,43 +1670,55 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>500</v>
-      </c>
       <c r="I33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>500</v>
-      </c>
       <c r="I35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1877,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,8 +1914,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,26 +1955,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F43" s="3">
         <v>8100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,26 +1996,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F44" s="3">
         <v>10000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,26 +2037,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,26 +2078,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F46" s="3">
         <v>21500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2119,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,26 +2160,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,8 +2201,14 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2242,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,26 +2324,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2406,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F54" s="3">
         <v>23700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2485,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,26 +2522,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,26 +2563,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,26 +2604,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F60" s="3">
         <v>16900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,13 +2645,19 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -2379,10 +2666,10 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2399,26 +2686,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2727,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2850,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F66" s="3">
         <v>19600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +3072,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F72" s="3">
         <v>3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,26 +3236,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>500</v>
-      </c>
       <c r="I81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3426,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,20 +3442,20 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3463,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>600</v>
-      </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,13 +3730,15 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3312,11 +3755,11 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3324,8 +3767,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,13 +3849,19 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3417,11 +3878,11 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3890,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,43 +4071,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-500</v>
-      </c>
       <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,38 +726,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E8" s="3">
         <v>17400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,38 +770,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,38 +814,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="3">
         <v>7300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,23 +964,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,8 +999,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,37 +1111,40 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>900</v>
       </c>
       <c r="G18" s="3">
         <v>900</v>
       </c>
       <c r="H18" s="3">
+        <v>900</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,26 +1175,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1172,8 +1205,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,29 +1229,29 @@
         <v>1200</v>
       </c>
       <c r="E21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,37 +1261,40 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1266,38 +1305,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,28 +1361,28 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,26 +1701,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1664,8 +1733,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1676,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,29 +2094,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E44" s="3">
         <v>14600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,29 +2138,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E46" s="3">
         <v>35100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,29 +2270,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,28 +2446,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E54" s="3">
         <v>38500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2537,20 +2670,20 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4900</v>
+        <v>6800</v>
       </c>
       <c r="E59" s="3">
         <v>4900</v>
       </c>
       <c r="F59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,16 +2790,19 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -2672,7 +2814,7 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2692,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E66" s="3">
         <v>12500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E76" s="3">
         <v>26000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3448,17 +3646,17 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
       </c>
       <c r="H89" s="3">
         <v>-700</v>
       </c>
       <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,17 +3951,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3761,8 +3981,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,17 +4081,20 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3884,8 +4113,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,41 +730,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,41 +777,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,41 +824,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E10" s="3">
         <v>7500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,26 +984,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1022,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E17" s="3">
         <v>16000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,40 +1141,43 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>900</v>
       </c>
       <c r="H18" s="3">
         <v>900</v>
       </c>
       <c r="I18" s="3">
+        <v>900</v>
+      </c>
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,29 +1209,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1208,8 +1242,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,41 +1254,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E21" s="3">
         <v>1200</v>
       </c>
       <c r="F21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,40 +1301,43 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1308,41 +1348,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,40 +1395,43 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,29 +1771,32 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1806,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,32 +2143,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E43" s="3">
         <v>15600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,32 +2190,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E44" s="3">
         <v>19900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,32 +2237,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E46" s="3">
         <v>43400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,31 +2331,34 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2273,32 +2378,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,31 +2425,34 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,31 +2566,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E54" s="3">
         <v>46400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,32 +2792,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,32 +2839,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4900</v>
       </c>
       <c r="F59" s="3">
         <v>4900</v>
       </c>
       <c r="G59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,19 +2933,22 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -2817,7 +2960,7 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2837,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E66" s="3">
         <v>19600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E76" s="3">
         <v>26800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,13 +3824,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3649,17 +3848,17 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3961,11 +4182,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3984,8 +4205,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,20 +4311,23 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4116,8 +4346,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4565,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>6900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,44 +734,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E8" s="3">
         <v>22800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,44 +784,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,44 +834,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E10" s="3">
         <v>9200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,29 +1004,32 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1045,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
         <v>21400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,43 +1171,46 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>900</v>
       </c>
       <c r="I18" s="3">
         <v>900</v>
       </c>
       <c r="J18" s="3">
+        <v>900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,32 +1243,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1245,8 +1279,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1257,44 +1291,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1200</v>
       </c>
       <c r="F21" s="3">
         <v>1200</v>
       </c>
       <c r="G21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,34 +1353,34 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,43 +1441,46 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,32 +1841,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1879,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,35 +2236,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E43" s="3">
         <v>19100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,35 +2286,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E44" s="3">
         <v>22400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,35 +2336,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E46" s="3">
         <v>52000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,16 +2436,19 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2360,8 +2465,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2381,35 +2486,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,17 +2536,20 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2565,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2686,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2578,25 +2698,25 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E54" s="3">
         <v>73800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2804,26 +2938,26 @@
         <v>1900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,35 +2976,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4900</v>
       </c>
       <c r="G59" s="3">
         <v>4900</v>
       </c>
       <c r="H59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E60" s="3">
         <v>18300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,22 +3076,25 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E61" s="3">
         <v>13400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -2963,7 +3106,7 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2983,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E66" s="3">
         <v>40100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E76" s="3">
         <v>33700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,17 +4023,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3851,17 +4050,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,23 +4393,24 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4208,8 +4429,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,23 +4541,26 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4349,8 +4579,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,44 +4811,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,31 +4861,34 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,255 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F8" s="3">
         <v>22100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>22800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>17100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>17400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>14700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="3">
         <v>9100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +932,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +984,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1040,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,26 +1055,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,17 +1087,23 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1152,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,99 +1175,107 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1283,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,49 +1309,51 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,99 +1361,111 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1394,99 +1473,111 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1100</v>
       </c>
       <c r="G23" s="3">
         <v>1200</v>
       </c>
       <c r="H23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1585,14 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1641,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1809,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1865,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1921,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,49 +1977,55 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,58 +2033,70 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2145,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2288,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2310,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2362,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,41 +2418,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F43" s="3">
         <v>17900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>19100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>15600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2474,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F44" s="3">
         <v>30400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>22400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>14600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>10000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,41 +2530,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2586,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F46" s="3">
         <v>55200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>52000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>43400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>35100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>32300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>21500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2642,14 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,11 +2659,11 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2468,11 +2677,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2489,41 +2698,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="3">
         <v>11000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,23 +2754,29 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F49" s="3">
         <v>11000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,11 +2789,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2589,8 +2810,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2866,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2922,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>1500</v>
       </c>
       <c r="I52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2978,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +3034,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F54" s="3">
         <v>78600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>73800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>46400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>38500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>23700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>20200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +3090,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +3116,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3138,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,41 +3190,47 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,41 +3246,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3302,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F60" s="3">
         <v>22900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,28 +3358,34 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F61" s="3">
         <v>14100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>13400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
@@ -3109,10 +3394,10 @@
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3129,41 +3414,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F62" s="3">
         <v>9200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3470,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3526,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3582,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3638,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F66" s="3">
         <v>46200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>40100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3694,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3720,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3772,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3828,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3884,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3940,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3996,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +4052,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +4108,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +4164,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F76" s="3">
         <v>32400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>33700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>26800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>25000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4220,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4276,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4419,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4033,14 +4430,14 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4053,20 +4450,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4471,14 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4527,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4583,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4639,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4695,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4751,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,29 +4833,31 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4432,11 +4873,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4444,8 +4885,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4941,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,29 +4997,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4582,11 +5041,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4594,8 +5053,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +5079,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +5131,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +5187,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5243,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,69 +5299,81 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>14100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -4890,11 +5387,11 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4914,8 +5411,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4923,45 +5426,51 @@
         <v>-800</v>
       </c>
       <c r="E102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,53 +745,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E8" s="3">
         <v>19300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,53 +804,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,53 +863,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,29 +1075,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1113,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,52 +1260,55 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>900</v>
       </c>
       <c r="L18" s="3">
         <v>900</v>
       </c>
       <c r="M18" s="3">
+        <v>900</v>
+      </c>
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1320,32 +1354,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1355,8 +1389,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1367,53 +1401,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1200</v>
       </c>
       <c r="I21" s="3">
         <v>1200</v>
       </c>
       <c r="J21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,16 +1460,19 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1441,34 +1481,34 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,52 +1578,55 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1992,32 +2062,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2027,8 +2097,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2039,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,44 +2514,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E43" s="3">
         <v>11800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,44 +2573,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E44" s="3">
         <v>23300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,44 +2632,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E46" s="3">
         <v>42700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>57400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2665,8 +2770,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2683,8 +2788,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2704,44 +2809,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,26 +2868,29 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E49" s="3">
         <v>7600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2906,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,43 +3045,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
       <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E54" s="3">
         <v>62100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E57" s="3">
         <v>12100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3205,35 +3339,35 @@
         <v>2000</v>
       </c>
       <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,44 +3386,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4900</v>
       </c>
       <c r="J59" s="3">
         <v>4900</v>
       </c>
       <c r="K59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E60" s="3">
         <v>19700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,31 +3504,34 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E61" s="3">
         <v>10200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -3400,7 +3543,7 @@
         <v>500</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3420,44 +3563,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E66" s="3">
         <v>36900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E76" s="3">
         <v>25100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4436,11 +4635,11 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4456,17 +4655,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-700</v>
       </c>
       <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,32 +5055,33 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5100,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,32 +5230,35 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5047,8 +5277,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,53 +5548,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,22 +5607,25 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -5393,8 +5642,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5417,53 +5666,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -2523,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="E43" s="3">
         <v>11800</v>
@@ -2641,7 +2641,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
         <v>3600</v>

--- a/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>IPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,56 +749,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E8" s="3">
         <v>20200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,56 +811,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,56 +873,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E10" s="3">
         <v>7800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,29 +1098,29 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,8 +1136,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E17" s="3">
         <v>22000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,55 +1290,58 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>900</v>
       </c>
       <c r="M18" s="3">
         <v>900</v>
       </c>
       <c r="N18" s="3">
+        <v>900</v>
+      </c>
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,44 +1378,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1392,8 +1426,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1404,56 +1438,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1200</v>
       </c>
       <c r="J21" s="3">
         <v>1200</v>
       </c>
       <c r="K21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,19 +1500,22 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1484,34 +1524,34 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1624,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,46 +1636,46 @@
         <v>-600</v>
       </c>
       <c r="E24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1810,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,44 +2120,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2170,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2112,56 +2182,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2306,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,47 +2485,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,47 +2607,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E43" s="3">
         <v>15900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,47 +2669,50 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E44" s="3">
         <v>19600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>30400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,47 +2731,50 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,47 +2793,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E46" s="3">
         <v>40300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>57400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2773,8 +2878,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2791,8 +2896,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2812,47 +2917,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,29 +2979,32 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E49" s="3">
         <v>7500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,8 +3020,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,46 +3165,49 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
       </c>
       <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,47 +3289,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E54" s="3">
         <v>59400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,47 +3401,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E57" s="3">
         <v>13400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3342,35 +3476,35 @@
         <v>2000</v>
       </c>
       <c r="F58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="3">
         <v>2800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1900</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,47 +3523,50 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4900</v>
       </c>
       <c r="K59" s="3">
         <v>4900</v>
       </c>
       <c r="L59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,47 +3585,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E60" s="3">
         <v>21500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,34 +3647,37 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
@@ -3546,7 +3689,7 @@
         <v>500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3566,47 +3709,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,47 +3957,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E66" s="3">
         <v>35700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,47 +4291,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,47 +4539,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E76" s="3">
         <v>23700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4730,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4638,11 +4837,11 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4658,17 +4857,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5188,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-700</v>
       </c>
       <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5065,26 +5286,26 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5103,8 +5324,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,8 +5460,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5242,26 +5472,26 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5280,8 +5510,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,56 +5794,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,25 +5856,28 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -5645,8 +5894,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5669,56 +5918,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
